--- a/listOfCollection/listOfCollection.xlsx
+++ b/listOfCollection/listOfCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szw12\Documents\GitHub\megaDataExtraction\listOfCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD6E29-9198-4815-9175-C77C43F7C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4060347E-3A41-404C-997C-51BD4AE51F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F0857FC-3799-4408-AD0A-A6A36536BA3F}"/>
+    <workbookView minimized="1" xWindow="23796" yWindow="2040" windowWidth="23040" windowHeight="12204" xr2:uid="{7F0857FC-3799-4408-AD0A-A6A36536BA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="yearList" sheetId="1" r:id="rId1"/>
@@ -2447,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3010FA74-9723-4752-A7B1-5AC51F99C6DE}">
   <dimension ref="A1:Q177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,7 +2459,7 @@
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
     <col min="10" max="10" width="46.6640625" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" customWidth="1"/>
